--- a/Function.xlsx
+++ b/Function.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiang_Lin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8087280A-7CC8-4DE9-976F-2DED75F0F149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E0B27A-433A-4980-B226-E28247F8C42B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Error Code" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Error code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +62,70 @@
   </si>
   <si>
     <t>ACH4 0.OMA_Sen_LSB ACH4 -0.05.Power ACH4 -42.65.Outer_OMA ACH4 NaN.Outer_ER ACH4 -0.20.TDECQ ACH4 -0.80.OMA_TDECQ ACH4 NaN.ndB_Width ACH4 19.98.SMSR ACH4 -999.99.Sen ACH4 0.OMA_Sen ACH4 -0.05.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Final </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Input </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ouput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yield Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burn In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3T BER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC BER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re-test Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re-test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +148,12 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -100,12 +171,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -388,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -443,4 +549,241 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D90CD0-ED34-4E1D-A87F-8AFF046217F2}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7">
+        <f>PRODUCT(D3:D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7">
+        <f>PRODUCT(D16:D24)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Function.xlsx
+++ b/Function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiang_Lin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E0B27A-433A-4980-B226-E28247F8C42B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B660063-76B4-4A2F-A2B9-E20A1556F379}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,13 +154,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -204,14 +218,14 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -556,7 +570,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -569,210 +583,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6">
         <f>PRODUCT(D3:D11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7">
+      <c r="C25" s="5"/>
+      <c r="D25" s="6">
         <f>PRODUCT(D16:D24)</f>
         <v>0</v>
       </c>

--- a/Function.xlsx
+++ b/Function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiang_Lin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B660063-76B4-4A2F-A2B9-E20A1556F379}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC21416E-979C-46A1-B3B0-745891E6D3C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>Error code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Final </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Input </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,12 +124,24 @@
     <t>Re-test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Limit line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDMI Pareto Chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +170,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -177,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -211,11 +226,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -223,12 +259,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{CEE8836A-8F52-4B00-AAA1-B6CC94115214}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -241,6 +281,2161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Re-test Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yield Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Analysis'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Burn In</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3T BER</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>TC BER</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ATS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Switch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF50-496F-A483-91372B284A44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1138625151"/>
+        <c:axId val="964306767"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Limit line</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Analysis'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Burn In</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3T BER</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>TC BER</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ATS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Switch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF50-496F-A483-91372B284A44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1138625151"/>
+        <c:axId val="964306767"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1138625151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964306767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="964306767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1138625151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>FPY</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yield Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Analysis'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Burn In</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3T BER</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>TC BER</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ATS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Switch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D6E-4569-9371-EA0519FC25C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1138625151"/>
+        <c:axId val="964306767"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Limit line</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Analysis'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Burn In</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3T BER</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>TC BER</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ATS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Switch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D6E-4569-9371-EA0519FC25C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1138625151"/>
+        <c:axId val="964306767"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1138625151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964306767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="964306767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1138625151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F28F8A-0AE7-48EC-9093-B2C1926D357E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D0E64C-53A2-497C-A426-97062FECEA9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -567,223 +2762,309 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D90CD0-ED34-4E1D-A87F-8AFF046217F2}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A30" sqref="A30:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6">
         <f>PRODUCT(D3:D11)</f>
-        <v>0</v>
+        <v>1.8144000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>18</v>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6">
@@ -791,13 +3072,54 @@
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A14:D14"/>
+  <mergeCells count="3">
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Function.xlsx
+++ b/Function.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiang_Lin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC21416E-979C-46A1-B3B0-745891E6D3C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC497AA-491A-489F-B3AC-EE52014BCE2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Error Code" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Analysis" sheetId="3" r:id="rId1"/>
+    <sheet name="Error Code" sheetId="1" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,13 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Error code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Report</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -65,75 +65,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Fail Q'ty</t>
+  </si>
+  <si>
+    <t>Failed Rate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPY</t>
+  </si>
+  <si>
     <t>Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input </t>
+  </si>
+  <si>
+    <t>Ouput</t>
+  </si>
+  <si>
+    <t>Yield Rate</t>
+  </si>
+  <si>
+    <t>Limit line</t>
+  </si>
+  <si>
+    <t>DDMI</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>Burn In</t>
+  </si>
+  <si>
+    <t>3T BER</t>
+  </si>
+  <si>
+    <t>TC BER</t>
+  </si>
+  <si>
+    <t>ATS</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Re-test Rate</t>
+  </si>
+  <si>
+    <t>Re-test</t>
+  </si>
+  <si>
+    <t>DDMI Pareto Chart</t>
+  </si>
+  <si>
+    <t>Cum%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DDMI</t>
+    <t>FailureCodeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Input </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ouput</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yield Rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FPY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Burn In</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3T BER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC BER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Re-test Rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Re-test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Limit line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDMI Pareto Chart</t>
+    <t>Error Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +142,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +181,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -192,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -246,29 +263,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{CEE8836A-8F52-4B00-AAA1-B6CC94115214}"/>
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -287,7 +329,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
+  <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -304,11 +346,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -317,10 +359,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:rPr lang="en-US"/>
               <a:t>Re-test Rate</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -337,11 +379,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -375,11 +417,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -426,38 +496,38 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>0.89473684210526316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7</c:v>
+                  <c:v>0.967741935483871</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6</c:v>
+                  <c:v>0.89583333333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>0.6470588235294118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BF50-496F-A483-91372B284A44}"/>
+              <c16:uniqueId val="{00000000-E05D-4B71-B862-1112B5A43F0E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -491,11 +561,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
+              <a:prstDash val="dashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -577,7 +647,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BF50-496F-A483-91372B284A44}"/>
+              <c16:uniqueId val="{00000001-E05D-4B71-B862-1112B5A43F0E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -626,8 +696,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -649,6 +719,7 @@
         <c:axId val="964306767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -685,8 +756,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -727,8 +798,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -742,7 +813,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -781,7 +852,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
+  <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -798,11 +869,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -811,10 +882,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:rPr lang="en-US"/>
               <a:t>FPY</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -831,11 +902,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -869,11 +940,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -920,38 +1019,38 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>0.89473684210526316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7</c:v>
+                  <c:v>0.967741935483871</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6</c:v>
+                  <c:v>0.89583333333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>0.6470588235294118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9D6E-4569-9371-EA0519FC25C9}"/>
+              <c16:uniqueId val="{00000000-185F-43D8-9D96-B490FCBC83CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -985,11 +1084,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1071,7 +1170,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9D6E-4569-9371-EA0519FC25C9}"/>
+              <c16:uniqueId val="{00000001-185F-43D8-9D96-B490FCBC83CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1120,8 +1219,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1143,6 +1242,7 @@
         <c:axId val="964306767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1179,8 +1279,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1221,8 +1321,817 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RT Pareto Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fail Q'ty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[2]Pareto RT'!$K$3:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>RLM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sen_LSB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Outer_OMA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outer_ER</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Power</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D_RXP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$B$29:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3F0-49F1-8C37-4EAB2831B786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cum%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Analysis'!$A$29:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$E$29:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3F0-49F1-8C37-4EAB2831B786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Category</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fail Q'ty</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cumulative Percentage (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1351,19 +2260,59 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1371,8 +2320,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1393,7 +2342,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1409,7 +2358,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1417,8 +2366,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1452,36 +2401,62 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1493,18 +2468,21 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -1513,10 +2491,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1533,20 +2511,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1561,15 +2537,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1580,59 +2556,155 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1645,120 +2717,24 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1768,27 +2744,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1798,8 +2773,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1818,8 +2793,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1831,8 +2806,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1842,31 +2817,25 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1874,8 +2843,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1896,7 +2865,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1912,7 +2881,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1920,8 +2889,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1955,36 +2924,62 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1996,18 +2991,21 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -2016,10 +3014,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2036,20 +3034,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2064,15 +3060,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2083,59 +3079,155 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2148,120 +3240,24 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2271,27 +3267,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2301,8 +3296,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2321,23 +3316,546 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2345,14 +3863,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2374,10 +3886,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F28F8A-0AE7-48EC-9093-B2C1926D357E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECAA731-96A4-4A56-8EB3-7D66BB3A67D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,10 +3924,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D0E64C-53A2-497C-A426-97062FECEA9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6F13F5-E969-4A33-AC4D-EA534D29579B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +3947,366 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>233081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259976</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24BC8CBF-7A15-403E-B36E-2A0F244A7C57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Error Code"/>
+      <sheetName val="Data Analysis"/>
+      <sheetName val="ATS"/>
+      <sheetName val="DDMI"/>
+      <sheetName val="LT"/>
+      <sheetName val="HT"/>
+      <sheetName val="RT"/>
+      <sheetName val="其他"/>
+      <sheetName val="Failed Device"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="D2" t="str">
+            <v>Yield Rate</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Limit line</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>DDMI</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>RT</v>
+          </cell>
+          <cell r="D4">
+            <v>0.89473684210526316</v>
+          </cell>
+          <cell r="E4">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>LT</v>
+          </cell>
+          <cell r="D5">
+            <v>0.967741935483871</v>
+          </cell>
+          <cell r="E5">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>HT</v>
+          </cell>
+          <cell r="D6">
+            <v>0.89583333333333337</v>
+          </cell>
+          <cell r="E6">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Burn In</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="E7">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>3T BER</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>TC BER</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+          <cell r="E9">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>ATS</v>
+          </cell>
+          <cell r="D10">
+            <v>0.6470588235294118</v>
+          </cell>
+          <cell r="E10">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Switch</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+          <cell r="E11">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Fail Q'ty</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>Cum%</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>DDMI</v>
+          </cell>
+          <cell r="E29">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>DDMI</v>
+          </cell>
+          <cell r="E30">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>DDMI</v>
+          </cell>
+          <cell r="E31">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>DDMI</v>
+          </cell>
+          <cell r="E32">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>DDMI</v>
+          </cell>
+          <cell r="E33">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>DDMI</v>
+          </cell>
+          <cell r="E34">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>DDMI</v>
+          </cell>
+          <cell r="E35">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>DDMI</v>
+          </cell>
+          <cell r="E36">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>DDMI</v>
+          </cell>
+          <cell r="E37">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>DDMI</v>
+          </cell>
+          <cell r="E38">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>DDMI</v>
+          </cell>
+          <cell r="E39">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>DDMI</v>
+          </cell>
+          <cell r="E40">
+            <v>0.9</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RT"/>
+      <sheetName val="ALL"/>
+      <sheetName val="RT Chart"/>
+      <sheetName val="Pareto RT"/>
+      <sheetName val="LT"/>
+      <sheetName val="LT Chart"/>
+      <sheetName val="Pareto LT"/>
+      <sheetName val="HT"/>
+      <sheetName val="HT Chart"/>
+      <sheetName val="Pareto HT"/>
+      <sheetName val="FINAL"/>
+      <sheetName val="FINAL CHART"/>
+      <sheetName val="Pareto Final"/>
+      <sheetName val="Final Type"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="3">
+          <cell r="K3" t="str">
+            <v>RLM</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="K4" t="str">
+            <v>Sen_LSB</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5" t="str">
+            <v>Outer_OMA</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6" t="str">
+            <v>Outer_ER</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7" t="str">
+            <v>Power</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="K8" t="str">
+            <v>D_RXP1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="K9" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="K10" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2700,72 +4571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C995CFE-1D20-4A50-B112-E19BEBD41DC1}">
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="3" width="12.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D90CD0-ED34-4E1D-A87F-8AFF046217F2}">
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:J41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2780,43 +4590,48 @@
     <col min="8" max="8" width="23.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
       <c r="D3" s="3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <v>0.9</v>
@@ -2824,12 +4639,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>34</v>
+      </c>
       <c r="D4" s="3">
-        <v>0.8</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="E4" s="3">
         <v>0.9</v>
@@ -2837,12 +4656,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2">
+        <v>60</v>
+      </c>
       <c r="D5" s="3">
-        <v>0.7</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="E5" s="3">
         <v>0.9</v>
@@ -2850,12 +4673,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43</v>
+      </c>
       <c r="D6" s="3">
-        <v>0.6</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="E6" s="3">
         <v>0.9</v>
@@ -2863,12 +4690,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
       <c r="D7" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
         <v>0.9</v>
@@ -2876,12 +4707,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
       <c r="D8" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
         <v>0.9</v>
@@ -2889,12 +4724,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0.9</v>
@@ -2902,12 +4741,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2">
+        <v>22</v>
+      </c>
       <c r="D10" s="3">
-        <v>0.2</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="E10" s="3">
         <v>0.9</v>
@@ -2915,192 +4758,249 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6">
+    <row r="12" spans="1:5" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5">
         <f>PRODUCT(D3:D11)</f>
-        <v>1.8144000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
       <c r="E16" s="3">
         <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
       <c r="E17" s="3">
         <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
       <c r="E18" s="3">
         <v>0.9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
       <c r="E19" s="3">
         <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
       <c r="E20" s="3">
         <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
       <c r="E21" s="3">
         <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
       <c r="E22" s="3">
         <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
       <c r="E23" s="3">
         <v>0.9</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
       <c r="E24" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6">
+    <row r="25" spans="1:5" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5">
         <f>PRODUCT(D16:D24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>25</v>
+      <c r="E28" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3111,10 +5011,153 @@
         <v>0.9</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3122,4 +5165,65 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="3" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Function.xlsx
+++ b/Function.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiang_Lin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiang_Lin\Downloads\SQL-Report-main\SQL-Report-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC497AA-491A-489F-B3AC-EE52014BCE2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F180C881-E523-40EB-B1E2-2A73FC6C5AD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="36">
   <si>
     <t>Error code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,9 +122,6 @@
     <t>Re-test</t>
   </si>
   <si>
-    <t>DDMI Pareto Chart</t>
-  </si>
-  <si>
     <t>Cum%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,6 +131,26 @@
   </si>
   <si>
     <t>Error Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDMI Pareto Chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT Pareto Chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT Pareto Chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HT Pareto Chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATS Pareto Chart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,10 +309,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -306,6 +318,10 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1406,7 +1422,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>RT Pareto Chart</a:t>
+              <a:t>DDMI Pareto Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1544,9 +1560,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[2]Pareto RT'!$K$3:$K$10</c:f>
+              <c:f>'[1]Pareto RT'!$K$3:$K$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>RLM</c:v>
                 </c:pt>
@@ -1760,6 +1776,3246 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A3F0-49F1-8C37-4EAB2831B786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Category</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fail Q'ty</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cumulative Percentage (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RT Pareto Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fail Q'ty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Pareto RT'!$K$3:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>RLM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sen_LSB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Outer_OMA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outer_ER</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Power</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D_RXP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$B$29:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C82-4F79-9BD7-F832A15FCC2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cum%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Analysis'!$A$29:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$E$29:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C82-4F79-9BD7-F832A15FCC2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Category</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fail Q'ty</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cumulative Percentage (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LT Pareto Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fail Q'ty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Pareto RT'!$K$3:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>RLM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sen_LSB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Outer_OMA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outer_ER</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Power</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D_RXP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$B$29:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3473-4A91-B28A-4E675FBFFDF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cum%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Analysis'!$A$29:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$E$29:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3473-4A91-B28A-4E675FBFFDF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Category</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fail Q'ty</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cumulative Percentage (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HT Pareto Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fail Q'ty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Pareto RT'!$K$3:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>RLM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sen_LSB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Outer_OMA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outer_ER</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Power</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D_RXP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$B$29:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-102A-45D6-8DA2-7DC0A816CC14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cum%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Analysis'!$A$29:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$E$29:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-102A-45D6-8DA2-7DC0A816CC14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Category</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fail Q'ty</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cumulative Percentage (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>ATS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Pareto Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fail Q'ty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Pareto RT'!$K$3:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>RLM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sen_LSB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Outer_OMA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outer_ER</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Power</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D_RXP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$B$29:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E8D-411A-9145-B502F9A4C42B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cum%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Analysis'!$A$29:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$E$29:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5E8D-411A-9145-B502F9A4C42B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2300,6 +5556,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
@@ -3347,6 +6763,2098 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3985,251 +9493,162 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>233081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259976</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B67E1E8-B96C-4B84-9533-03567987CB5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>233081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259976</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86BA450-3CBC-4D72-8D23-0D2531640CB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>233081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259976</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F1E30A-B7CF-43B6-8006-A2F54EE06EAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>233081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259976</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203F35F1-A394-4388-A85D-CC011F48CF41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Error Code"/>
-      <sheetName val="Data Analysis"/>
-      <sheetName val="ATS"/>
-      <sheetName val="DDMI"/>
-      <sheetName val="LT"/>
-      <sheetName val="HT"/>
-      <sheetName val="RT"/>
-      <sheetName val="其他"/>
-      <sheetName val="Failed Device"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="D2" t="str">
-            <v>Yield Rate</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Limit line</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-          <cell r="E3">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>RT</v>
-          </cell>
-          <cell r="D4">
-            <v>0.89473684210526316</v>
-          </cell>
-          <cell r="E4">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>LT</v>
-          </cell>
-          <cell r="D5">
-            <v>0.967741935483871</v>
-          </cell>
-          <cell r="E5">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>HT</v>
-          </cell>
-          <cell r="D6">
-            <v>0.89583333333333337</v>
-          </cell>
-          <cell r="E6">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Burn In</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-          <cell r="E7">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>3T BER</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-          <cell r="E8">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>TC BER</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-          <cell r="E9">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>ATS</v>
-          </cell>
-          <cell r="D10">
-            <v>0.6470588235294118</v>
-          </cell>
-          <cell r="E10">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Switch</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-          <cell r="E11">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>Fail Q'ty</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>Cum%</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="E29">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="E30">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="E31">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="E32">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="E33">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="E34">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="E35">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="E36">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="E37">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="E38">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="E39">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="E40">
-            <v>0.9</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4572,10 +9991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C995CFE-1D20-4A50-B112-E19BEBD41DC1}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P88" sqref="P88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4595,13 +10014,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4784,13 +10203,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -4973,29 +10392,29 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="A27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>29</v>
+      <c r="E28" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -5154,11 +10573,743 @@
         <v>0.9</v>
       </c>
     </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A87:E87"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A57:E57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5186,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Function.xlsx
+++ b/Function.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiang_Lin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiang_Lin\Downloads\SQL-Report-main\SQL-Report-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F8AEC1E-B32D-49DB-A8DC-0DDCFB313400}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D6A09B-5F77-4EAA-A2A0-E6B8CF0575BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,6 @@
     <sheet name="Data Analysis" sheetId="4" r:id="rId1"/>
     <sheet name="Error Code" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="51">
   <si>
     <t>Error code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +181,14 @@
   </si>
   <si>
     <t>dTemp</t>
+  </si>
+  <si>
+    <t>3T BER Pareto Chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC BER Pareto Chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -341,17 +345,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4338,6 +4342,1354 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8FFC-43A8-B550-440326EBA046}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Category</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fail Q'ty</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cumulative Percentage (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>3T</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>BER</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Pareto Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$B$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fail Q'ty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Analysis'!$A$89:$A$100</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>dVcc(%)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RLM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Power(dBm)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case_Temp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tx_Disable(dBm)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Overshoot</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dTemp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$B$104:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1E6-462B-9F21-CC36572211E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$D$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cum%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Analysis'!$A$104:$A$115</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>dVcc(%)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RLM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Power(dBm)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case_Temp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tx_Disable(dBm)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Overshoot</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dTemp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$D$104:$D$115</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1E6-462B-9F21-CC36572211E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Category</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fail Q'ty</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cumulative Percentage (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>3T</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>BER</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Pareto Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$B$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fail Q'ty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Analysis'!$A$89:$A$100</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>dVcc(%)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RLM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Power(dBm)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case_Temp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tx_Disable(dBm)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Overshoot</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dTemp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$B$89:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A189-466F-A928-DB619416069D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cum%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Analysis'!$A$89:$A$100</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>dVcc(%)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RLM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Power(dBm)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case_Temp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tx_Disable(dBm)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Overshoot</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dTemp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DDMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$D$89:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A189-466F-A928-DB619416069D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4949,328 +6301,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>225461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E7B59D-E6ED-4EAC-B332-C2D5A0863437}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>225461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7008F2B-893C-4CA0-B048-8437C5C10717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="RT"/>
-      <sheetName val="ALL"/>
-      <sheetName val="RT Chart"/>
-      <sheetName val="Pareto RT"/>
-      <sheetName val="LT"/>
-      <sheetName val="LT Chart"/>
-      <sheetName val="Pareto LT"/>
-      <sheetName val="HT"/>
-      <sheetName val="HT Chart"/>
-      <sheetName val="Pareto HT"/>
-      <sheetName val="FINAL"/>
-      <sheetName val="FINAL CHART"/>
-      <sheetName val="Pareto Final"/>
-      <sheetName val="Final Type"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="K3" t="str">
-            <v>RLM</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="K4" t="str">
-            <v>Sen_LSB</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5" t="str">
-            <v>Outer_OMA</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6" t="str">
-            <v>Outer_ER</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7" t="str">
-            <v>Power</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="K8" t="str">
-            <v>D_RXP1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="K9" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="K10" t="str">
-            <v/>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Data Analysis"/>
-      <sheetName val="Error Code"/>
-      <sheetName val="ATS"/>
-      <sheetName val="DDMI"/>
-      <sheetName val="LT"/>
-      <sheetName val="HT"/>
-      <sheetName val="RT"/>
-      <sheetName val="其他"/>
-      <sheetName val="Failed Device"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="D2" t="str">
-            <v>Yield Rate</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Limit line</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-          <cell r="E3">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>RT</v>
-          </cell>
-          <cell r="D4">
-            <v>0.89473684210526316</v>
-          </cell>
-          <cell r="E4">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>LT</v>
-          </cell>
-          <cell r="D5">
-            <v>0.967741935483871</v>
-          </cell>
-          <cell r="E5">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>HT</v>
-          </cell>
-          <cell r="D6">
-            <v>0.89583333333333337</v>
-          </cell>
-          <cell r="E6">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Burn In</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-          <cell r="E7">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>3T BER</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-          <cell r="E8">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>TC BER</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-          <cell r="E9">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>ATS</v>
-          </cell>
-          <cell r="D10">
-            <v>0.6470588235294118</v>
-          </cell>
-          <cell r="E10">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Switch</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-          <cell r="E11">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>Fail Q'ty</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>Cum%</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="D29">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="D30">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="D31">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="D32">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="D33">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="D34">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="D35">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="D36">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="D37">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="D38">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="D39">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="D40">
-            <v>0.9</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5536,10 +6643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66EFB71-2EBD-4C9C-AEEF-7CD0CD8881AE}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I103" sqref="I103"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5559,13 +6666,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5748,13 +6855,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -5937,13 +7044,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
@@ -5952,7 +7059,7 @@
       <c r="B28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -6104,12 +7211,12 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
@@ -6118,7 +7225,7 @@
       <c r="B43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -6276,13 +7383,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
@@ -6291,7 +7398,7 @@
       <c r="B58" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -6445,13 +7552,13 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
@@ -6460,7 +7567,7 @@
       <c r="B73" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="6" t="s">
@@ -6618,13 +7725,13 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
@@ -6633,7 +7740,7 @@
       <c r="B88" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D88" s="6" t="s">
@@ -6750,7 +7857,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>16</v>
       </c>
@@ -6762,7 +7869,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>16</v>
       </c>
@@ -6774,7 +7881,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>16</v>
       </c>
@@ -6786,7 +7893,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>16</v>
       </c>
@@ -6798,8 +7905,372 @@
         <v>0.9</v>
       </c>
     </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="8"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="2">
+        <v>5</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.22727272727272729</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2</v>
+      </c>
+      <c r="C105" s="3">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1</v>
+      </c>
+      <c r="C106" s="3">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1</v>
+      </c>
+      <c r="C107" s="3">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1</v>
+      </c>
+      <c r="C108" s="3">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+      <c r="C109" s="3">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+      <c r="C110" s="3">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="D110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="8"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="2">
+        <v>5</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0.22727272727272729</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2</v>
+      </c>
+      <c r="C120" s="3">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1</v>
+      </c>
+      <c r="C121" s="3">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1</v>
+      </c>
+      <c r="C122" s="3">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B123" s="2">
+        <v>1</v>
+      </c>
+      <c r="C123" s="3">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B124" s="2">
+        <v>1</v>
+      </c>
+      <c r="C124" s="3">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" s="2">
+        <v>1</v>
+      </c>
+      <c r="C125" s="3">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="D125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A117:D117"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A14:E14"/>

--- a/Function.xlsx
+++ b/Function.xlsx
@@ -5,64 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiang_Lin\Downloads\SQL-Report-main\SQL-Report-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiang_Lin\Downloads\SQL-Report-main (2)\SQL-Report-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D6A09B-5F77-4EAA-A2A0-E6B8CF0575BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22801C3D-74D9-4097-8395-7BB0C1B03735}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Analysis" sheetId="4" r:id="rId1"/>
-    <sheet name="Error Code" sheetId="1" r:id="rId2"/>
+    <sheet name="Data Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Error Code" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="51">
-  <si>
-    <t>Error code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RLM:0.902</t>
-  </si>
-  <si>
-    <t>dVcc(%):0.11</t>
-  </si>
-  <si>
-    <t>RLM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dVcc(%)</t>
-  </si>
-  <si>
-    <t>Overshoot:0.060Sen:-5.29OMA_Se</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overshoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sen_LSB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACH4 0.OMA_Sen_LSB ACH4 -0.05.Power ACH4 -42.65.Outer_OMA ACH4 NaN.Outer_ER ACH4 -0.20.TDECQ ACH4 -0.80.OMA_TDECQ ACH4 NaN.ndB_Width ACH4 19.98.SMSR ACH4 -999.99.Sen ACH4 0.OMA_Sen ACH4 -0.05.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fail Q'ty</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
   <si>
     <t>FPY</t>
   </si>
@@ -115,14 +74,13 @@
     <t>Re-test</t>
   </si>
   <si>
-    <t>FailureCodeID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DDMI Pareto Chart</t>
   </si>
   <si>
     <t>Error Code</t>
+  </si>
+  <si>
+    <t>Fail Q'ty</t>
   </si>
   <si>
     <t>Failed Rate</t>
@@ -131,64 +89,85 @@
     <t>Cum%</t>
   </si>
   <si>
-    <t>RT Pareto Chart</t>
+    <t>dRxP1</t>
   </si>
   <si>
-    <t>Power</t>
+    <t>Tx_Disable(dBm)</t>
   </si>
   <si>
     <t>dTxP</t>
   </si>
   <si>
-    <t>OMA_TDECQ</t>
+    <t>RT Pareto Chart</t>
+  </si>
+  <si>
+    <t>RLM</t>
+  </si>
+  <si>
+    <t>Sen_LSB</t>
   </si>
   <si>
     <t>LT Pareto Chart</t>
   </si>
   <si>
-    <t>Fail Q'ty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>TDECQ</t>
   </si>
   <si>
-    <t>Sen_LSB</t>
+    <t>Outer_ER</t>
+  </si>
+  <si>
+    <t>LosA</t>
   </si>
   <si>
     <t>HT Pareto Chart</t>
   </si>
   <si>
-    <t>TDECQ</t>
-  </si>
-  <si>
-    <t>Outer_OMA</t>
-  </si>
-  <si>
     <t>ATS Pareto Chart</t>
   </si>
   <si>
-    <t>RLM</t>
+    <t>dVcc(%)</t>
+  </si>
+  <si>
+    <t>LOS_A</t>
+  </si>
+  <si>
+    <t>Sen</t>
   </si>
   <si>
     <t>Power(dBm)</t>
   </si>
   <si>
-    <t>Case_Temp</t>
-  </si>
-  <si>
-    <t>Tx_Disable(dBm)</t>
-  </si>
-  <si>
     <t>Overshoot</t>
   </si>
   <si>
-    <t>dTemp</t>
+    <t>TDECQ(dB)</t>
+  </si>
+  <si>
+    <t>OMA_TDECQ(dB)</t>
   </si>
   <si>
     <t>3T BER Pareto Chart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TC BER Pareto Chart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error code</t>
+  </si>
+  <si>
+    <t>FailureCodeID</t>
+  </si>
+  <si>
+    <t>RLM:0.902</t>
+  </si>
+  <si>
+    <t>dVcc(%):0.11</t>
+  </si>
+  <si>
+    <t>Overshoot:0.060Sen:-5.29OMA_Se</t>
+  </si>
+  <si>
+    <t>ACH4 0.OMA_Sen_LSB ACH4 -0.05.Power ACH4 -42.65.Outer_OMA ACH4 NaN.Outer_ER ACH4 -0.20.TDECQ ACH4 -0.80.OMA_TDECQ ACH4 NaN.ndB_Width ACH4 19.98.SMSR ACH4 -999.99.Sen ACH4 0.OMA_Sen ACH4 -0.05.</t>
   </si>
 </sst>
 </file>
@@ -332,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -345,22 +324,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{CEE8836A-8F52-4B00-AAA1-B6CC94115214}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{DDE5CF9B-5245-406B-B262-86FC21CDB354}"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="百分比 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -380,14 +356,7 @@
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -526,16 +495,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.94736842105263153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89473684210526316</c:v>
+                  <c:v>0.91111111111111109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.967741935483871</c:v>
+                  <c:v>0.82051282051282048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89583333333333337</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -547,7 +516,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6470588235294118</c:v>
+                  <c:v>0.70399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -557,7 +526,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD69-4C54-8D8B-8234D2CC9F33}"/>
+              <c16:uniqueId val="{00000000-70F0-4CD0-B99C-2E1048F3798F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -640,43 +609,12 @@
           <c:val>
             <c:numRef>
               <c:f>'Data Analysis'!$E$3:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AD69-4C54-8D8B-8234D2CC9F33}"/>
+              <c16:uniqueId val="{00000001-70F0-4CD0-B99C-2E1048F3798F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -865,14 +803,7 @@
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1011,16 +942,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.94736842105263153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89473684210526316</c:v>
+                  <c:v>0.91111111111111109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.967741935483871</c:v>
+                  <c:v>0.82051282051282048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89583333333333337</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1032,7 +963,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6470588235294118</c:v>
+                  <c:v>0.70399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1042,7 +973,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D98C-4F9A-88B2-E4124DCF33DD}"/>
+              <c16:uniqueId val="{00000000-F437-4DDF-9589-A2E5CE2DF0A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1125,43 +1056,12 @@
           <c:val>
             <c:numRef>
               <c:f>'Data Analysis'!$E$3:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D98C-4F9A-88B2-E4124DCF33DD}"/>
+              <c16:uniqueId val="{00000001-F437-4DDF-9589-A2E5CE2DF0A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1350,14 +1250,7 @@
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1500,42 +1393,15 @@
             <c:strRef>
               <c:f>'Data Analysis'!$A$29:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>DDMI</c:v>
+                  <c:v>dRxP1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DDMI</c:v>
+                  <c:v>Tx_Disable(dBm)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>DDMI</c:v>
+                  <c:v>dTxP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1546,12 +1412,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CB76-4A8D-AB6A-1A00E2165EF8}"/>
+              <c16:uniqueId val="{00000000-6004-4B46-9A5D-96FEBF6C9CE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1643,42 +1518,15 @@
             <c:strRef>
               <c:f>'Data Analysis'!$A$29:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>DDMI</c:v>
+                  <c:v>dRxP1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DDMI</c:v>
+                  <c:v>Tx_Disable(dBm)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>DDMI</c:v>
+                  <c:v>dTxP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1690,40 +1538,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1731,7 +1552,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CB76-4A8D-AB6A-1A00E2165EF8}"/>
+              <c16:uniqueId val="{00000001-6004-4B46-9A5D-96FEBF6C9CE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2096,7 +1917,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -2120,9 +1941,29 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2145,14 +1986,51 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
-                <a:prstDash val="solid"/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2161,7 +2039,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -2193,42 +2071,12 @@
             <c:strRef>
               <c:f>'Data Analysis'!$A$44:$A$55</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Power</c:v>
+                  <c:v>RLM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>dTxP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>OMA_TDECQ</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>DDMI</c:v>
+                  <c:v>Sen_LSB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2240,12 +2088,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2253,7 +2098,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3432-4F68-908F-5EB6E2F410E9}"/>
+              <c16:uniqueId val="{00000000-0D5A-467A-B589-0748215AFD31}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2286,6 +2131,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2293,42 +2147,12 @@
             <c:strRef>
               <c:f>'Data Analysis'!$A$44:$A$55</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Power</c:v>
+                  <c:v>RLM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>dTxP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>OMA_TDECQ</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>DDMI</c:v>
+                  <c:v>Sen_LSB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2340,40 +2164,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2381,7 +2175,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3432-4F68-908F-5EB6E2F410E9}"/>
+              <c16:uniqueId val="{00000001-0D5A-467A-B589-0748215AFD31}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2412,7 +2206,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -2436,9 +2230,29 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2453,16 +2267,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -2500,9 +2314,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -2512,7 +2326,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -2536,9 +2350,29 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2548,15 +2382,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -2591,9 +2425,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -2603,7 +2437,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -2627,9 +2461,29 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2639,15 +2493,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -2666,6 +2520,13 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -2674,15 +2535,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -2713,10 +2574,20 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2746,7 +2617,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -2770,9 +2641,29 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2795,14 +2686,51 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
-                <a:prstDash val="solid"/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2811,7 +2739,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -2843,42 +2771,18 @@
             <c:strRef>
               <c:f>'Data Analysis'!$A$59:$A$70</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>TDECQ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Outer_ER</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Sen_LSB</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DDMI</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>DDMI</c:v>
+                  <c:v>LosA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2890,14 +2794,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD39-4FC3-AA24-98769EE3E808}"/>
+              <c16:uniqueId val="{00000000-2660-4CCE-9E32-774F1165193A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2930,6 +2843,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2937,42 +2859,18 @@
             <c:strRef>
               <c:f>'Data Analysis'!$A$59:$A$70</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>TDECQ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Outer_ER</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Sen_LSB</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DDMI</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>DDMI</c:v>
+                  <c:v>LosA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2984,40 +2882,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3025,7 +2899,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AD39-4FC3-AA24-98769EE3E808}"/>
+              <c16:uniqueId val="{00000001-2660-4CCE-9E32-774F1165193A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3056,7 +2930,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -3080,9 +2954,29 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3097,16 +2991,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -3144,9 +3038,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -3156,7 +3050,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -3180,9 +3074,29 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3192,15 +3106,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -3235,9 +3149,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -3247,7 +3161,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -3271,9 +3185,29 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3283,15 +3217,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -3310,6 +3244,13 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -3318,15 +3259,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -3357,10 +3298,20 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3390,7 +3341,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -3414,9 +3365,29 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3439,14 +3410,51 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
-                <a:prstDash val="solid"/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -3455,7 +3463,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -3487,42 +3495,18 @@
             <c:strRef>
               <c:f>'Data Analysis'!$A$74:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>TDECQ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>OMA_TDECQ</c:v>
+                  <c:v>Sen_LSB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Outer_OMA</c:v>
+                  <c:v>LosA</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>DDMI</c:v>
+                  <c:v>Outer_ER</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3534,12 +3518,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3547,7 +3534,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0C66-4A63-8F85-CB26E69765D7}"/>
+              <c16:uniqueId val="{00000000-6E4B-488A-95F3-02820B516A51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3580,6 +3567,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -3587,42 +3583,18 @@
             <c:strRef>
               <c:f>'Data Analysis'!$A$74:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>TDECQ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>OMA_TDECQ</c:v>
+                  <c:v>Sen_LSB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Outer_OMA</c:v>
+                  <c:v>LosA</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>DDMI</c:v>
+                  <c:v>Outer_ER</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3634,40 +3606,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3675,7 +3623,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0C66-4A63-8F85-CB26E69765D7}"/>
+              <c16:uniqueId val="{00000001-6E4B-488A-95F3-02820B516A51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3706,7 +3654,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -3730,9 +3678,29 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3747,16 +3715,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -3794,9 +3762,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -3806,7 +3774,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -3830,9 +3798,29 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3842,15 +3830,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -3885,9 +3873,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -3897,7 +3885,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -3921,9 +3909,29 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3933,15 +3941,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -3960,6 +3968,13 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -3968,15 +3983,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -4007,10 +4022,20 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4040,7 +4065,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -4053,12 +4078,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>ATS</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> Pareto Chart</a:t>
+              <a:t>ATS Pareto Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4068,9 +4089,29 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4093,14 +4134,51 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
-                <a:prstDash val="solid"/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -4109,7 +4187,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -4141,42 +4219,33 @@
             <c:strRef>
               <c:f>'Data Analysis'!$A$89:$A$100</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>dVcc(%)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Tx_Disable(dBm)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LOS_A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sen</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>RLM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>Power(dBm)</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Case_Temp</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Tx_Disable(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Overshoot</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>dTemp</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>DDMI</c:v>
+                  <c:v>TDECQ(dB)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>DDMI</c:v>
+                  <c:v>OMA_TDECQ(dB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4188,24 +4257,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4213,7 +4288,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8FFC-43A8-B550-440326EBA046}"/>
+              <c16:uniqueId val="{00000000-2DED-49FC-B468-99F2ED3B9FE0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4246,6 +4321,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -4253,42 +4337,33 @@
             <c:strRef>
               <c:f>'Data Analysis'!$A$89:$A$100</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>dVcc(%)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Tx_Disable(dBm)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LOS_A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sen</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>RLM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>Power(dBm)</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Case_Temp</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Tx_Disable(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Overshoot</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>dTemp</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>DDMI</c:v>
+                  <c:v>TDECQ(dB)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>DDMI</c:v>
+                  <c:v>OMA_TDECQ(dB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4300,40 +4375,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.41666666666666669</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.65789473684210531</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.76315789473684215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>0.84210526315789469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.89473684210526316</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91666666666666663</c:v>
+                  <c:v>0.92105263157894735</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.94736842105263153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97368421052631582</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4341,7 +4407,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8FFC-43A8-B550-440326EBA046}"/>
+              <c16:uniqueId val="{00000001-2DED-49FC-B468-99F2ED3B9FE0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4372,7 +4438,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -4396,9 +4462,29 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4413,16 +4499,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -4460,9 +4546,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -4472,7 +4558,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -4496,9 +4582,29 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4508,15 +4614,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -4551,9 +4657,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -4563,7 +4669,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -4587,9 +4693,29 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4599,15 +4725,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -4626,6 +4752,13 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -4634,15 +4767,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -4673,10 +4806,20 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4706,7 +4849,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -4719,20 +4862,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:rPr lang="en-US"/>
               <a:t>3T</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:rPr lang="zh-TW"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>BER</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> Pareto Chart</a:t>
+              <a:t>BER Pareto Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4742,9 +4881,29 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4767,14 +4926,51 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
-                <a:prstDash val="solid"/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -4783,7 +4979,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -4815,42 +5011,33 @@
             <c:strRef>
               <c:f>'Data Analysis'!$A$89:$A$100</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>dVcc(%)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Tx_Disable(dBm)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LOS_A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sen</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>RLM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>Power(dBm)</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Case_Temp</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Tx_Disable(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Overshoot</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>dTemp</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>DDMI</c:v>
+                  <c:v>TDECQ(dB)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>DDMI</c:v>
+                  <c:v>OMA_TDECQ(dB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4861,33 +5048,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D1E6-462B-9F21-CC36572211E9}"/>
+              <c16:uniqueId val="{00000000-18B0-4C8A-A732-04FADAE11027}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4920,52 +5086,26 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Analysis'!$A$104:$A$115</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>dVcc(%)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>RLM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Power(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Case_Temp</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Tx_Disable(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Overshoot</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>dTemp</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4973,49 +5113,13 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.41666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.58333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.9</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D1E6-462B-9F21-CC36572211E9}"/>
+              <c16:uniqueId val="{00000001-18B0-4C8A-A732-04FADAE11027}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5046,7 +5150,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -5070,9 +5174,29 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5087,16 +5211,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -5134,9 +5258,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -5146,7 +5270,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -5170,9 +5294,29 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5182,15 +5326,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -5225,9 +5369,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -5237,7 +5381,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -5261,9 +5405,29 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5273,15 +5437,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -5300,6 +5464,13 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -5308,15 +5479,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -5347,10 +5518,20 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -5380,7 +5561,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -5393,20 +5574,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:rPr lang="en-US"/>
               <a:t>3T</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:rPr lang="zh-TW"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>BER</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> Pareto Chart</a:t>
+              <a:t>BER Pareto Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5416,9 +5593,29 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5441,14 +5638,51 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
-                <a:prstDash val="solid"/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -5457,7 +5691,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -5489,79 +5723,49 @@
             <c:strRef>
               <c:f>'Data Analysis'!$A$89:$A$100</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>dVcc(%)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Tx_Disable(dBm)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LOS_A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sen</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>RLM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>Power(dBm)</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Case_Temp</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Tx_Disable(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Overshoot</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>dTemp</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>DDMI</c:v>
+                  <c:v>TDECQ(dB)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>DDMI</c:v>
+                  <c:v>OMA_TDECQ(dB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Analysis'!$B$89:$B$100</c:f>
+              <c:f>'Data Analysis'!$D$119:$D$130</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A189-466F-A928-DB619416069D}"/>
+              <c16:uniqueId val="{00000000-A5F5-42D8-A88D-5CF3BC64ABA5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5594,102 +5798,40 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Data Analysis'!$A$89:$A$100</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Data Analysis'!$A$119:$A$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>dVcc(%)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>RLM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Power(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Case_Temp</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Tx_Disable(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Overshoot</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>dTemp</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>DDMI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Analysis'!$D$89:$D$100</c:f>
+              <c:f>'Data Analysis'!$D$119:$D$130</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.41666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.58333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.9</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A189-466F-A928-DB619416069D}"/>
+              <c16:uniqueId val="{00000001-A5F5-42D8-A88D-5CF3BC64ABA5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5720,7 +5862,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -5744,9 +5886,29 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5761,16 +5923,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -5808,9 +5970,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -5820,7 +5982,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -5844,11 +6006,31 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5856,15 +6038,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -5899,9 +6081,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -5911,7 +6093,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -5935,9 +6117,29 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5947,15 +6149,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -5974,6 +6176,13 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -5982,15 +6191,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -6021,16 +6230,3404 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6053,13 +9650,11 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC684174-7223-46E0-9331-9B368362B7D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6091,13 +9686,11 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD5966E-3B14-4EAA-8970-D95525ACE1AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6129,13 +9722,11 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A106E51D-0009-4980-BBFF-7E917B3DE73F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6167,13 +9758,11 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BEAD37-74B3-46B0-B5EC-4080C920E7C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6205,13 +9794,11 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F47B583-A3B6-4187-9AFC-330C0CD3C50B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6243,13 +9830,11 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D072DAA9-9883-4682-BFB5-A17C8829BF34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6281,13 +9866,11 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC94E8B-546F-4910-873E-0198F89F31CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6316,16 +9899,14 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 7">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E7B59D-E6ED-4EAC-B332-C2D5A0863437}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6354,16 +9935,14 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 7">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7008F2B-893C-4CA0-B048-8437C5C10717}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6642,11 +10221,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66EFB71-2EBD-4C9C-AEEF-7CD0CD8881AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6655,54 +10234,54 @@
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="3.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="11" max="13" width="9" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>0.94736842105263153</v>
       </c>
       <c r="E3" s="3">
         <v>0.9</v>
@@ -6710,16 +10289,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3">
-        <v>0.89473684210526316</v>
+        <v>0.91111111111111109</v>
       </c>
       <c r="E4" s="3">
         <v>0.9</v>
@@ -6727,16 +10306,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3">
-        <v>0.967741935483871</v>
+        <v>0.82051282051282048</v>
       </c>
       <c r="E5" s="3">
         <v>0.9</v>
@@ -6744,16 +10323,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="E6" s="3">
         <v>0.9</v>
@@ -6761,7 +10340,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -6778,7 +10357,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -6795,7 +10374,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -6812,16 +10391,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="D10" s="3">
-        <v>0.6470588235294118</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="E10" s="3">
         <v>0.9</v>
@@ -6829,7 +10408,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -6846,7 +10425,7 @@
     </row>
     <row r="12" spans="1:5" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5">
@@ -6856,42 +10435,42 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E16" s="3">
         <v>0.9</v>
@@ -6899,7 +10478,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -6916,7 +10495,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -6933,16 +10512,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E19" s="3">
         <v>0.9</v>
@@ -6950,7 +10529,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -6967,7 +10546,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -6984,7 +10563,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -7001,16 +10580,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="3">
         <v>0.9</v>
@@ -7018,7 +10597,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -7035,7 +10614,7 @@
     </row>
     <row r="25" spans="1:5" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5">
@@ -7045,7 +10624,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -7054,165 +10633,117 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
       <c r="C29" s="3">
-        <v>0.9</v>
+        <v>3.5087719298245612E-2</v>
       </c>
       <c r="D29" s="3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
       <c r="C30" s="3">
-        <v>0.9</v>
+        <v>1.754385964912281E-2</v>
       </c>
       <c r="D30" s="3">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
       <c r="C31" s="3">
-        <v>0.9</v>
+        <v>1.754385964912281E-2</v>
       </c>
       <c r="D31" s="3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -7220,171 +10751,109 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B44" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="3">
-        <v>5.8823529411764712E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D44" s="3">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
       </c>
       <c r="C45" s="3">
-        <v>2.9411764705882349E-2</v>
+        <v>2.222222222222222E-2</v>
       </c>
       <c r="D45" s="3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="2">
-        <v>1</v>
-      </c>
-      <c r="C46" s="3">
-        <v>2.9411764705882349E-2</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -7393,167 +10862,125 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B59" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" s="3">
-        <v>3.3333333333333333E-2</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="D59" s="3">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
       <c r="C60" s="3">
-        <v>0.9</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="D60" s="3">
-        <v>0.9</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
       <c r="C61" s="3">
-        <v>0.9</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="D61" s="3">
-        <v>0.9</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
       <c r="C62" s="3">
-        <v>0.9</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="D62" s="3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D63" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A65" s="2"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D68" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D70" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -7562,171 +10989,125 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B74" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C74" s="3">
-        <v>6.9767441860465115E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D74" s="3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B75" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" s="3">
-        <v>2.3255813953488368E-2</v>
+        <v>4.4444444444444453E-2</v>
       </c>
       <c r="D75" s="3">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B76" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76" s="3">
-        <v>2.3255813953488368E-2</v>
+        <v>4.4444444444444453E-2</v>
       </c>
       <c r="D76" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
       <c r="C77" s="3">
-        <v>0.9</v>
+        <v>2.222222222222222E-2</v>
       </c>
       <c r="D77" s="3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D78" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D79" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D80" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D81" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D82" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D83" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D84" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D85" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -7735,179 +11116,165 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B89" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C89" s="3">
-        <v>0.22727272727272729</v>
+        <v>0.152</v>
       </c>
       <c r="D89" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B90" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C90" s="3">
-        <v>9.0909090909090912E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D90" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.65789473684210531</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B91" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C91" s="3">
-        <v>4.5454545454545463E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D91" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.76315789473684215</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B92" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92" s="3">
-        <v>4.5454545454545463E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D92" s="3">
-        <v>0.75</v>
+        <v>0.84210526315789469</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B93" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" s="3">
-        <v>4.5454545454545463E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D93" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.89473684210526316</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B94" s="2">
         <v>1</v>
       </c>
       <c r="C94" s="3">
-        <v>4.5454545454545463E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D94" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.92105263157894735</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B95" s="2">
         <v>1</v>
       </c>
       <c r="C95" s="3">
-        <v>4.5454545454545463E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D95" s="3">
-        <v>1</v>
+        <v>0.94736842105263153</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B96" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1</v>
+      </c>
       <c r="C96" s="3">
-        <v>0.9</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D96" s="3">
-        <v>0.9</v>
+        <v>0.97368421052631582</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B97" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1</v>
+      </c>
       <c r="C97" s="3">
-        <v>0.9</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D97" s="3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D98" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D99" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A100" s="2"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D100" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -7916,179 +11283,93 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B104" s="2">
-        <v>5</v>
-      </c>
-      <c r="C104" s="3">
-        <v>0.22727272727272729</v>
-      </c>
-      <c r="D104" s="3">
-        <v>0.41666666666666669</v>
-      </c>
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B105" s="2">
-        <v>2</v>
-      </c>
-      <c r="C105" s="3">
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="D105" s="3">
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B106" s="2">
-        <v>1</v>
-      </c>
-      <c r="C106" s="3">
-        <v>4.5454545454545463E-2</v>
-      </c>
-      <c r="D106" s="3">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B107" s="2">
-        <v>1</v>
-      </c>
-      <c r="C107" s="3">
-        <v>4.5454545454545463E-2</v>
-      </c>
-      <c r="D107" s="3">
-        <v>0.75</v>
-      </c>
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B108" s="2">
-        <v>1</v>
-      </c>
-      <c r="C108" s="3">
-        <v>4.5454545454545463E-2</v>
-      </c>
-      <c r="D108" s="3">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B109" s="2">
-        <v>1</v>
-      </c>
-      <c r="C109" s="3">
-        <v>4.5454545454545463E-2</v>
-      </c>
-      <c r="D109" s="3">
-        <v>0.91666666666666663</v>
-      </c>
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B110" s="2">
-        <v>1</v>
-      </c>
-      <c r="C110" s="3">
-        <v>4.5454545454545463E-2</v>
-      </c>
-      <c r="D110" s="3">
-        <v>1</v>
-      </c>
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D111" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A112" s="2"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D112" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A113" s="2"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D113" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A114" s="2"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D114" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A115" s="2"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D115" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -8097,187 +11378,101 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B119" s="2">
-        <v>5</v>
-      </c>
-      <c r="C119" s="3">
-        <v>0.22727272727272729</v>
-      </c>
-      <c r="D119" s="3">
-        <v>0.41666666666666669</v>
-      </c>
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B120" s="2">
-        <v>2</v>
-      </c>
-      <c r="C120" s="3">
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="D120" s="3">
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B121" s="2">
-        <v>1</v>
-      </c>
-      <c r="C121" s="3">
-        <v>4.5454545454545463E-2</v>
-      </c>
-      <c r="D121" s="3">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B122" s="2">
-        <v>1</v>
-      </c>
-      <c r="C122" s="3">
-        <v>4.5454545454545463E-2</v>
-      </c>
-      <c r="D122" s="3">
-        <v>0.75</v>
-      </c>
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B123" s="2">
-        <v>1</v>
-      </c>
-      <c r="C123" s="3">
-        <v>4.5454545454545463E-2</v>
-      </c>
-      <c r="D123" s="3">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B124" s="2">
-        <v>1</v>
-      </c>
-      <c r="C124" s="3">
-        <v>4.5454545454545463E-2</v>
-      </c>
-      <c r="D124" s="3">
-        <v>0.91666666666666663</v>
-      </c>
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B125" s="2">
-        <v>1</v>
-      </c>
-      <c r="C125" s="3">
-        <v>4.5454545454545463E-2</v>
-      </c>
-      <c r="D125" s="3">
-        <v>1</v>
-      </c>
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A126" s="2"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D126" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A127" s="2"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D127" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A128" s="2"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D128" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A129" s="2"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D129" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A130" s="2"/>
       <c r="B130" s="2"/>
-      <c r="C130" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D130" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A72:D72"/>
     <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A72:D72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8287,10 +11482,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -8302,47 +11497,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Function.xlsx
+++ b/Function.xlsx
@@ -5,23 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiang_Lin\Downloads\SQL-Report-main (2)\SQL-Report-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiang_Lin\Downloads\SQL-Report-main (1)\SQL-Report-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22801C3D-74D9-4097-8395-7BB0C1B03735}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FCD592-E15B-4F6D-B263-588C054205CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Analysis" sheetId="3" r:id="rId1"/>
     <sheet name="Error Code" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>FPY</t>
   </si>
@@ -89,15 +92,6 @@
     <t>Cum%</t>
   </si>
   <si>
-    <t>dRxP1</t>
-  </si>
-  <si>
-    <t>Tx_Disable(dBm)</t>
-  </si>
-  <si>
-    <t>dTxP</t>
-  </si>
-  <si>
     <t>RT Pareto Chart</t>
   </si>
   <si>
@@ -110,15 +104,6 @@
     <t>LT Pareto Chart</t>
   </si>
   <si>
-    <t>TDECQ</t>
-  </si>
-  <si>
-    <t>Outer_ER</t>
-  </si>
-  <si>
-    <t>LosA</t>
-  </si>
-  <si>
     <t>HT Pareto Chart</t>
   </si>
   <si>
@@ -128,22 +113,7 @@
     <t>dVcc(%)</t>
   </si>
   <si>
-    <t>LOS_A</t>
-  </si>
-  <si>
-    <t>Sen</t>
-  </si>
-  <si>
-    <t>Power(dBm)</t>
-  </si>
-  <si>
     <t>Overshoot</t>
-  </si>
-  <si>
-    <t>TDECQ(dB)</t>
-  </si>
-  <si>
-    <t>OMA_TDECQ(dB)</t>
   </si>
   <si>
     <t>3T BER Pareto Chart</t>
@@ -324,10 +294,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -356,7 +326,14 @@
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -495,16 +472,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.94736842105263153</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91111111111111109</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82051282051282048</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -516,7 +493,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70399999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -526,7 +503,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-70F0-4CD0-B99C-2E1048F3798F}"/>
+              <c16:uniqueId val="{00000000-BDF4-416C-9618-D4CFFE1EB157}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -609,12 +586,43 @@
           <c:val>
             <c:numRef>
               <c:f>'Data Analysis'!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-70F0-4CD0-B99C-2E1048F3798F}"/>
+              <c16:uniqueId val="{00000001-BDF4-416C-9618-D4CFFE1EB157}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -803,7 +811,14 @@
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -942,16 +957,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.94736842105263153</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91111111111111109</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82051282051282048</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -963,7 +978,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70399999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -973,7 +988,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F437-4DDF-9589-A2E5CE2DF0A5}"/>
+              <c16:uniqueId val="{00000000-ABC5-4419-9D31-39BC74C7D0A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1056,12 +1071,43 @@
           <c:val>
             <c:numRef>
               <c:f>'Data Analysis'!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F437-4DDF-9589-A2E5CE2DF0A5}"/>
+              <c16:uniqueId val="{00000001-ABC5-4419-9D31-39BC74C7D0A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1250,7 +1296,14 @@
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1390,21 +1443,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Analysis'!$A$29:$A$40</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>dRxP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tx_Disable(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>dTxP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1412,21 +1457,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6004-4B46-9A5D-96FEBF6C9CE2}"/>
+              <c16:uniqueId val="{00000000-E45D-47AE-918A-3442DAE2A7AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1515,21 +1551,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Analysis'!$A$29:$A$40</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>dRxP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tx_Disable(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>dTxP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1537,22 +1565,13 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6004-4B46-9A5D-96FEBF6C9CE2}"/>
+              <c16:uniqueId val="{00000001-E45D-47AE-918A-3442DAE2A7AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1917,7 +1936,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -1941,29 +1960,9 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1991,23 +1990,23 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
+                    <a:tint val="67000"/>
+                    <a:satMod val="105000"/>
                     <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
                   <a:schemeClr val="accent1">
+                    <a:tint val="73000"/>
+                    <a:satMod val="103000"/>
                     <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
+                    <a:tint val="81000"/>
+                    <a:satMod val="109000"/>
                     <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
@@ -2019,9 +2018,9 @@
                   <a:shade val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2029,8 +2028,8 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2039,7 +2038,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -2068,18 +2067,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Analysis'!$A$44:$A$55</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>RLM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sen_LSB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2087,18 +2081,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D5A-467A-B589-0748215AFD31}"/>
+              <c16:uniqueId val="{00000000-6B0C-40BC-9E2E-5775701B1233}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2136,26 +2124,21 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Analysis'!$A$44:$A$55</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>RLM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sen_LSB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2163,19 +2146,13 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0D5A-467A-B589-0748215AFD31}"/>
+              <c16:uniqueId val="{00000001-6B0C-40BC-9E2E-5775701B1233}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2206,7 +2183,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -2230,29 +2207,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2267,16 +2224,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -2314,9 +2271,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -2326,7 +2283,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -2350,29 +2307,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2382,15 +2319,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -2425,9 +2362,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -2437,7 +2374,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -2461,29 +2398,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2493,15 +2410,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -2520,13 +2437,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -2535,15 +2445,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -2574,20 +2484,10 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
   </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2617,7 +2517,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -2641,29 +2541,9 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2691,23 +2571,23 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
+                    <a:tint val="67000"/>
+                    <a:satMod val="105000"/>
                     <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
                   <a:schemeClr val="accent1">
+                    <a:tint val="73000"/>
+                    <a:satMod val="103000"/>
                     <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
+                    <a:tint val="81000"/>
+                    <a:satMod val="109000"/>
                     <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
@@ -2719,9 +2599,9 @@
                   <a:shade val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2729,8 +2609,8 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2739,7 +2619,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -2768,24 +2648,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Analysis'!$A$59:$A$70</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TDECQ</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Outer_ER</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sen_LSB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LosA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2793,24 +2662,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2660-4CCE-9E32-774F1165193A}"/>
+              <c16:uniqueId val="{00000000-60EB-4434-B950-2593FB0C1769}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2848,32 +2705,21 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Analysis'!$A$59:$A$70</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TDECQ</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Outer_ER</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sen_LSB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LosA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2881,25 +2727,13 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.7142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2660-4CCE-9E32-774F1165193A}"/>
+              <c16:uniqueId val="{00000001-60EB-4434-B950-2593FB0C1769}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2930,7 +2764,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -2954,29 +2788,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2991,16 +2805,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -3038,9 +2852,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -3050,7 +2864,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -3074,29 +2888,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3106,15 +2900,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -3149,9 +2943,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -3161,7 +2955,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -3185,29 +2979,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3217,15 +2991,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -3244,13 +3018,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -3259,15 +3026,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -3298,20 +3065,10 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
   </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3341,7 +3098,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -3365,29 +3122,9 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3415,23 +3152,23 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
+                    <a:tint val="67000"/>
+                    <a:satMod val="105000"/>
                     <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
                   <a:schemeClr val="accent1">
+                    <a:tint val="73000"/>
+                    <a:satMod val="103000"/>
                     <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
+                    <a:tint val="81000"/>
+                    <a:satMod val="109000"/>
                     <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
@@ -3443,9 +3180,9 @@
                   <a:shade val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -3453,8 +3190,8 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -3463,7 +3200,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -3492,24 +3229,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Analysis'!$A$74:$A$85</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TDECQ</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sen_LSB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LosA</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Outer_ER</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3517,24 +3243,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6E4B-488A-95F3-02820B516A51}"/>
+              <c16:uniqueId val="{00000000-8DB3-4065-978A-B716BA36B8EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3572,32 +3286,21 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Analysis'!$A$74:$A$85</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TDECQ</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sen_LSB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LosA</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Outer_ER</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3605,25 +3308,13 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6E4B-488A-95F3-02820B516A51}"/>
+              <c16:uniqueId val="{00000001-8DB3-4065-978A-B716BA36B8EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3654,7 +3345,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -3678,29 +3369,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3715,16 +3386,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -3762,9 +3433,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -3774,7 +3445,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -3798,29 +3469,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3830,15 +3481,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -3873,9 +3524,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -3885,7 +3536,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -3909,29 +3560,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3941,15 +3572,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -3968,13 +3599,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -3983,15 +3607,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -4022,20 +3646,10 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
   </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4065,7 +3679,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -4089,29 +3703,9 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4139,23 +3733,23 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
+                    <a:tint val="67000"/>
+                    <a:satMod val="105000"/>
                     <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
                   <a:schemeClr val="accent1">
+                    <a:tint val="73000"/>
+                    <a:satMod val="103000"/>
                     <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
+                    <a:tint val="81000"/>
+                    <a:satMod val="109000"/>
                     <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
@@ -4167,9 +3761,9 @@
                   <a:shade val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -4177,8 +3771,8 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -4187,7 +3781,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -4216,39 +3810,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Analysis'!$A$89:$A$100</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>dVcc(%)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tx_Disable(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LOS_A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sen</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>RLM</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Power(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Overshoot</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TDECQ(dB)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>OMA_TDECQ(dB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4256,39 +3824,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2DED-49FC-B468-99F2ED3B9FE0}"/>
+              <c16:uniqueId val="{00000000-3F31-4E0C-8213-90528D68596B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4326,47 +3867,21 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Analysis'!$A$89:$A$100</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>dVcc(%)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tx_Disable(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LOS_A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sen</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>RLM</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Power(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Overshoot</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TDECQ(dB)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>OMA_TDECQ(dB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4374,40 +3889,13 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65789473684210531</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76315789473684215</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.84210526315789469</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89473684210526316</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92105263157894735</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94736842105263153</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.97368421052631582</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2DED-49FC-B468-99F2ED3B9FE0}"/>
+              <c16:uniqueId val="{00000001-3F31-4E0C-8213-90528D68596B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4438,7 +3926,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -4462,29 +3950,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4499,16 +3967,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -4546,9 +4014,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -4558,7 +4026,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -4582,29 +4050,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4614,15 +4062,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -4657,9 +4105,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -4669,7 +4117,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -4693,29 +4141,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4725,15 +4153,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -4752,13 +4180,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -4767,15 +4188,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -4806,20 +4227,10 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
   </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4849,7 +4260,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -4881,29 +4292,9 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4931,23 +4322,23 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
+                    <a:tint val="67000"/>
+                    <a:satMod val="105000"/>
                     <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
                   <a:schemeClr val="accent1">
+                    <a:tint val="73000"/>
+                    <a:satMod val="103000"/>
                     <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
+                    <a:tint val="81000"/>
+                    <a:satMod val="109000"/>
                     <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
@@ -4959,9 +4350,9 @@
                   <a:shade val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -4969,8 +4360,8 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -4979,7 +4370,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -5008,39 +4399,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Analysis'!$A$89:$A$100</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>dVcc(%)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tx_Disable(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LOS_A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sen</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>RLM</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Power(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Overshoot</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TDECQ(dB)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>OMA_TDECQ(dB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5053,7 +4418,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-18B0-4C8A-A732-04FADAE11027}"/>
+              <c16:uniqueId val="{00000000-365A-44D6-B385-6BB493D43502}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5091,9 +4456,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -5119,7 +4484,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-18B0-4C8A-A732-04FADAE11027}"/>
+              <c16:uniqueId val="{00000001-365A-44D6-B385-6BB493D43502}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5150,7 +4515,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -5174,29 +4539,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5211,16 +4556,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -5258,9 +4603,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -5270,7 +4615,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -5294,29 +4639,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5326,15 +4651,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -5369,9 +4694,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -5381,7 +4706,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -5405,29 +4730,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5437,15 +4742,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -5464,13 +4769,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -5479,15 +4777,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -5518,20 +4816,10 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
   </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -5561,7 +4849,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -5593,29 +4881,9 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5643,23 +4911,23 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
+                    <a:tint val="67000"/>
+                    <a:satMod val="105000"/>
                     <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
                   <a:schemeClr val="accent1">
+                    <a:tint val="73000"/>
+                    <a:satMod val="103000"/>
                     <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
+                    <a:tint val="81000"/>
+                    <a:satMod val="109000"/>
                     <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
@@ -5671,9 +4939,9 @@
                   <a:shade val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -5681,8 +4949,8 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -5691,7 +4959,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -5720,39 +4988,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Analysis'!$A$89:$A$100</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>dVcc(%)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tx_Disable(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LOS_A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sen</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>RLM</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Power(dBm)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Overshoot</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TDECQ(dB)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>OMA_TDECQ(dB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5765,7 +5007,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A5F5-42D8-A88D-5CF3BC64ABA5}"/>
+              <c16:uniqueId val="{00000000-9326-4170-9BAC-49FA5A220D9D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5803,9 +5045,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -5831,7 +5073,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A5F5-42D8-A88D-5CF3BC64ABA5}"/>
+              <c16:uniqueId val="{00000001-9326-4170-9BAC-49FA5A220D9D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5862,7 +5104,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -5886,29 +5128,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5923,16 +5145,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -5970,9 +5192,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -5982,7 +5204,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -6006,29 +5228,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -6038,15 +5240,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -6081,9 +5283,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -6093,7 +5295,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -6117,29 +5319,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -6149,15 +5331,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -6176,13 +5358,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -6191,15 +5366,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -6230,3404 +5405,16 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
   </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9650,11 +5437,13 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3372725-8CA5-43A9-997C-155A2E47334B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9686,11 +5475,13 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85ED2128-1B97-4174-AE9B-F4B1A211D10B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9722,11 +5513,13 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA48F51-63EF-42E1-A80F-7FB68305F813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9758,11 +5551,13 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353E9CB1-4993-442B-B38E-9729532A0DE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9794,11 +5589,13 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9A7942-7055-41C4-91D7-CBF395DB0E02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9830,11 +5627,13 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97FDA79D-904B-40EB-9F29-AC63E829861B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9866,11 +5665,13 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E3AC6F4-7384-45E0-9592-52F5CF83AD6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9902,11 +5703,13 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC826DA-E1F8-4071-AE0D-09C58ECB6CF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9938,11 +5741,13 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5FE52D7-97D4-4564-AF88-F4F637942924}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9957,6 +5762,151 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Data Analysis"/>
+      <sheetName val="Error Code"/>
+      <sheetName val="其他"/>
+      <sheetName val="Failed Device"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="D2" t="str">
+            <v>Yield Rate</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Limit line</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>DDMI</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>RT</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>LT</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+          <cell r="E5">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>HT</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+          <cell r="E6">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Burn In</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="E7">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>3T BER</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>TC BER</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+          <cell r="E9">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>ATS</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+          <cell r="E10">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Switch</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+          <cell r="E11">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Fail Q'ty</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>Cum%</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>Fail Q'ty</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="D103" t="str">
+            <v>Cum%</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10221,11 +6171,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA72BCF-C987-4080-9CAA-BA148044FB6B}">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J133" sqref="J133"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -10234,14 +6184,14 @@
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="3.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="11" max="14" width="9" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -10275,13 +6225,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>0.94736842105263153</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <v>0.9</v>
@@ -10292,13 +6242,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0.91111111111111109</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>0.9</v>
@@ -10309,13 +6259,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0.82051282051282048</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <v>0.9</v>
@@ -10326,13 +6276,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
         <v>0.9</v>
@@ -10394,13 +6344,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>0.70399999999999996</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>0.9</v>
@@ -10464,13 +6414,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
         <v>0.9</v>
@@ -10515,13 +6465,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
         <v>0.9</v>
@@ -10583,13 +6533,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0.9</v>
@@ -10629,7 +6579,7 @@
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="8"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
@@ -10638,7 +6588,7 @@
       <c r="B28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -10646,46 +6596,22 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3">
-        <v>3.5087719298245612E-2</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1.754385964912281E-2</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.75</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1.754385964912281E-2</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
@@ -10743,7 +6669,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -10756,7 +6682,7 @@
       <c r="B43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -10764,32 +6690,16 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="2">
-        <v>3</v>
-      </c>
-      <c r="C44" s="3">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.75</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3">
-        <v>2.222222222222222E-2</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
@@ -10853,12 +6763,12 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="8"/>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
@@ -10867,7 +6777,7 @@
       <c r="B58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -10875,60 +6785,28 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="2">
-        <v>4</v>
-      </c>
-      <c r="C59" s="3">
-        <v>0.1025641025641026</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0.5714285714285714</v>
-      </c>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="2">
-        <v>1</v>
-      </c>
-      <c r="C60" s="3">
-        <v>2.564102564102564E-2</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0.7142857142857143</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61" s="2">
-        <v>1</v>
-      </c>
-      <c r="C61" s="3">
-        <v>2.564102564102564E-2</v>
-      </c>
-      <c r="D61" s="3">
-        <v>0.8571428571428571</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="2">
-        <v>1</v>
-      </c>
-      <c r="C62" s="3">
-        <v>2.564102564102564E-2</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
@@ -10980,12 +6858,12 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
-      <c r="E72" s="8"/>
+      <c r="E72" s="9"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
@@ -10994,7 +6872,7 @@
       <c r="B73" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="6" t="s">
@@ -11002,60 +6880,28 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B74" s="2">
-        <v>5</v>
-      </c>
-      <c r="C74" s="3">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="D74" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B75" s="2">
-        <v>2</v>
-      </c>
-      <c r="C75" s="3">
-        <v>4.4444444444444453E-2</v>
-      </c>
-      <c r="D75" s="3">
-        <v>0.7</v>
-      </c>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" s="2">
-        <v>2</v>
-      </c>
-      <c r="C76" s="3">
-        <v>4.4444444444444453E-2</v>
-      </c>
-      <c r="D76" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B77" s="2">
-        <v>1</v>
-      </c>
-      <c r="C77" s="3">
-        <v>2.222222222222222E-2</v>
-      </c>
-      <c r="D77" s="3">
-        <v>1</v>
-      </c>
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
@@ -11107,12 +6953,12 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
-      <c r="E87" s="8"/>
+      <c r="E87" s="9"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
@@ -11121,7 +6967,7 @@
       <c r="B88" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D88" s="6" t="s">
@@ -11129,130 +6975,58 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B89" s="2">
-        <v>19</v>
-      </c>
-      <c r="C89" s="3">
-        <v>0.152</v>
-      </c>
-      <c r="D89" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B90" s="2">
-        <v>6</v>
-      </c>
-      <c r="C90" s="3">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="D90" s="3">
-        <v>0.65789473684210531</v>
-      </c>
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B91" s="2">
-        <v>4</v>
-      </c>
-      <c r="C91" s="3">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D91" s="3">
-        <v>0.76315789473684215</v>
-      </c>
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B92" s="2">
-        <v>3</v>
-      </c>
-      <c r="C92" s="3">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D92" s="3">
-        <v>0.84210526315789469</v>
-      </c>
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B93" s="2">
-        <v>2</v>
-      </c>
-      <c r="C93" s="3">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D93" s="3">
-        <v>0.89473684210526316</v>
-      </c>
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B94" s="2">
-        <v>1</v>
-      </c>
-      <c r="C94" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D94" s="3">
-        <v>0.92105263157894735</v>
-      </c>
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B95" s="2">
-        <v>1</v>
-      </c>
-      <c r="C95" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D95" s="3">
-        <v>0.94736842105263153</v>
-      </c>
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B96" s="2">
-        <v>1</v>
-      </c>
-      <c r="C96" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D96" s="3">
-        <v>0.97368421052631582</v>
-      </c>
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B97" s="2">
-        <v>1</v>
-      </c>
-      <c r="C97" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D97" s="3">
-        <v>1</v>
-      </c>
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
@@ -11274,12 +7048,12 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
-      <c r="E102" s="8"/>
+      <c r="E102" s="9"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
@@ -11288,7 +7062,7 @@
       <c r="B103" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -11369,12 +7143,12 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
-      <c r="E117" s="8"/>
+      <c r="E117" s="9"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
@@ -11383,7 +7157,7 @@
       <c r="B118" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D118" s="6" t="s">
@@ -11464,15 +7238,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A117:D117"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A117:D117"/>
     <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A87:D87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11485,7 +7259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -11497,42 +7271,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Function.xlsx
+++ b/Function.xlsx
@@ -5,26 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiang_Lin\Downloads\SQL-Report-main (1)\SQL-Report-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiang_Lin\Downloads\SQL-Report-main (5)\SQL-Report-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FCD592-E15B-4F6D-B263-588C054205CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FBAC45E-F2ED-4E05-8077-A123EF7734D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Analysis" sheetId="3" r:id="rId1"/>
-    <sheet name="Error Code" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Error Code" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="800G_TRX 其他" sheetId="9" state="hidden" r:id="rId3"/>
+    <sheet name="800G_Fixed_BER 其他" sheetId="12" state="hidden" r:id="rId4"/>
+    <sheet name="BER_Symbol_Error 其他" sheetId="15" state="hidden" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="164">
   <si>
     <t>FPY</t>
   </si>
@@ -92,52 +92,430 @@
     <t>Cum%</t>
   </si>
   <si>
+    <t>dRxP1</t>
+  </si>
+  <si>
+    <t>Power(dBm)</t>
+  </si>
+  <si>
+    <t>dTxP</t>
+  </si>
+  <si>
+    <t>Vcc_Offset</t>
+  </si>
+  <si>
     <t>RT Pareto Chart</t>
   </si>
   <si>
     <t>RLM</t>
   </si>
   <si>
+    <t>LT Pareto Chart</t>
+  </si>
+  <si>
+    <t>Tempoffset</t>
+  </si>
+  <si>
+    <t>HT Pareto Chart</t>
+  </si>
+  <si>
+    <t>DSP_Temp</t>
+  </si>
+  <si>
+    <t>ATS Pareto Chart</t>
+  </si>
+  <si>
+    <t>dVcc(%)</t>
+  </si>
+  <si>
+    <t>Tx_Disable(dBm)</t>
+  </si>
+  <si>
+    <t>TDECQ(dB)</t>
+  </si>
+  <si>
+    <t>Sen</t>
+  </si>
+  <si>
+    <t>Overshoot</t>
+  </si>
+  <si>
+    <t>Outer_OMA(dB)</t>
+  </si>
+  <si>
+    <t>3T BER Pareto Chart</t>
+  </si>
+  <si>
+    <t>BER5</t>
+  </si>
+  <si>
+    <t>TC BER Pareto Chart</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>BER</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Error code</t>
+  </si>
+  <si>
+    <t>FailureCodeID</t>
+  </si>
+  <si>
+    <t>RLM:0.902</t>
+  </si>
+  <si>
+    <t>dVcc(%):0.11</t>
+  </si>
+  <si>
+    <t>Overshoot:0.060Sen:-5.29OMA_Se</t>
+  </si>
+  <si>
     <t>Sen_LSB</t>
   </si>
   <si>
-    <t>LT Pareto Chart</t>
-  </si>
-  <si>
-    <t>HT Pareto Chart</t>
-  </si>
-  <si>
-    <t>ATS Pareto Chart</t>
-  </si>
-  <si>
-    <t>dVcc(%)</t>
-  </si>
-  <si>
-    <t>Overshoot</t>
-  </si>
-  <si>
-    <t>3T BER Pareto Chart</t>
-  </si>
-  <si>
-    <t>TC BER Pareto Chart</t>
-  </si>
-  <si>
-    <t>Error code</t>
-  </si>
-  <si>
-    <t>FailureCodeID</t>
-  </si>
-  <si>
-    <t>RLM:0.902</t>
-  </si>
-  <si>
-    <t>dVcc(%):0.11</t>
-  </si>
-  <si>
-    <t>Overshoot:0.060Sen:-5.29OMA_Se</t>
-  </si>
-  <si>
     <t>ACH4 0.OMA_Sen_LSB ACH4 -0.05.Power ACH4 -42.65.Outer_OMA ACH4 NaN.Outer_ER ACH4 -0.20.TDECQ ACH4 -0.80.OMA_TDECQ ACH4 NaN.ndB_Width ACH4 19.98.SMSR ACH4 -999.99.Sen ACH4 0.OMA_Sen ACH4 -0.05.</t>
+  </si>
+  <si>
+    <t>測試項目</t>
+  </si>
+  <si>
+    <t>TESTNUMBER</t>
+  </si>
+  <si>
+    <t>COMPONENTID</t>
+  </si>
+  <si>
+    <t>CHNumber</t>
+  </si>
+  <si>
+    <t>CH_Pass_Fail</t>
+  </si>
+  <si>
+    <t>Outer_ER(dB)</t>
+  </si>
+  <si>
+    <t>OMA_TDECQ(dB)</t>
+  </si>
+  <si>
+    <t>Ceq(dB)</t>
+  </si>
+  <si>
+    <t>TDECQ_Ceq(dB)</t>
+  </si>
+  <si>
+    <t>Rise_Time(ps)</t>
+  </si>
+  <si>
+    <t>Fall_Time(ps)</t>
+  </si>
+  <si>
+    <t>Bias_Setpoint</t>
+  </si>
+  <si>
+    <t>Tops_Setpoint</t>
+  </si>
+  <si>
+    <t>DDMI_Bias(mA)</t>
+  </si>
+  <si>
+    <t>WL(nm)</t>
+  </si>
+  <si>
+    <t>error_WL(nm)</t>
+  </si>
+  <si>
+    <t>ndB_Width(nm)</t>
+  </si>
+  <si>
+    <t>SMSR(dB)</t>
+  </si>
+  <si>
+    <t>OMA_Sen</t>
+  </si>
+  <si>
+    <t>LOS_A</t>
+  </si>
+  <si>
+    <t>LOS_D</t>
+  </si>
+  <si>
+    <t>LOS_Hys</t>
+  </si>
+  <si>
+    <t>RxP1</t>
+  </si>
+  <si>
+    <t>DD_RxP1</t>
+  </si>
+  <si>
+    <t>RxP2</t>
+  </si>
+  <si>
+    <t>DD_RxP2</t>
+  </si>
+  <si>
+    <t>dRxP2</t>
+  </si>
+  <si>
+    <t>RxP3</t>
+  </si>
+  <si>
+    <t>DD_RxP3</t>
+  </si>
+  <si>
+    <t>dRxP3</t>
+  </si>
+  <si>
+    <t>RxP4</t>
+  </si>
+  <si>
+    <t>DD_RxP4</t>
+  </si>
+  <si>
+    <t>dRxP4</t>
+  </si>
+  <si>
+    <t>RxP5</t>
+  </si>
+  <si>
+    <t>DD_RxP5</t>
+  </si>
+  <si>
+    <t>dRxP5</t>
+  </si>
+  <si>
+    <t>Rxp_Offset</t>
+  </si>
+  <si>
+    <t>Rxp_Slope</t>
+  </si>
+  <si>
+    <t>DDMI_TxP</t>
+  </si>
+  <si>
+    <t>Txp_Offset</t>
+  </si>
+  <si>
+    <t>Txp_Slope</t>
+  </si>
+  <si>
+    <t>Tops_room</t>
+  </si>
+  <si>
+    <t>Tops_off</t>
+  </si>
+  <si>
+    <t>RSSI</t>
+  </si>
+  <si>
+    <t>I2C_Vcc</t>
+  </si>
+  <si>
+    <t>DDMI_Vcc</t>
+  </si>
+  <si>
+    <t>Vcc_Slope</t>
+  </si>
+  <si>
+    <t>Case_Temp</t>
+  </si>
+  <si>
+    <t>DDMI_Temp</t>
+  </si>
+  <si>
+    <t>dTemp</t>
+  </si>
+  <si>
+    <t>ICC(mA)</t>
+  </si>
+  <si>
+    <t>ICC_LP(mA)</t>
+  </si>
+  <si>
+    <t>HP_CP(W)</t>
+  </si>
+  <si>
+    <t>LP_CP(W)</t>
+  </si>
+  <si>
+    <t>Tops_Mid</t>
+  </si>
+  <si>
+    <t>Mode_hopping</t>
+  </si>
+  <si>
+    <t>Port_SN</t>
+  </si>
+  <si>
+    <t>AOIBert_SN</t>
+  </si>
+  <si>
+    <t>Undershoot</t>
+  </si>
+  <si>
+    <t>HT_OA</t>
+  </si>
+  <si>
+    <t>RT_OA</t>
+  </si>
+  <si>
+    <t>LT_OA</t>
+  </si>
+  <si>
+    <t>TDECQ_4.8E-6</t>
+  </si>
+  <si>
+    <t>Vbias</t>
+  </si>
+  <si>
+    <t>Tap2</t>
+  </si>
+  <si>
+    <t>Tap3</t>
+  </si>
+  <si>
+    <t>Low_Eye</t>
+  </si>
+  <si>
+    <t>Sen_MSB</t>
+  </si>
+  <si>
+    <t>OMA_Sen_MSB</t>
+  </si>
+  <si>
+    <t>OMA_Sen_LSB</t>
+  </si>
+  <si>
+    <t>TX_Total_AOP</t>
+  </si>
+  <si>
+    <t>LD_Temp</t>
+  </si>
+  <si>
+    <t>Mode_hopping2</t>
+  </si>
+  <si>
+    <t>TXP_MPDOut_4.5dB</t>
+  </si>
+  <si>
+    <t>TXP_MPDOut_3.5dB</t>
+  </si>
+  <si>
+    <t>TXP_MPDOut_3dB</t>
+  </si>
+  <si>
+    <t>TXP_MPDOut_2.5dB</t>
+  </si>
+  <si>
+    <t>DSP_VCC2.6</t>
+  </si>
+  <si>
+    <t>DSP_VCC1.8</t>
+  </si>
+  <si>
+    <t>DSP_VCC0.9</t>
+  </si>
+  <si>
+    <t>DSP_VCC0.7</t>
+  </si>
+  <si>
+    <t>LD_Temp_Cal</t>
+  </si>
+  <si>
+    <t>DSP_Temp_Cal</t>
+  </si>
+  <si>
+    <t>NTC_Temp</t>
+  </si>
+  <si>
+    <t>test_date</t>
+  </si>
+  <si>
+    <t>test_datetime</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>RXP1</t>
+  </si>
+  <si>
+    <t>DDMI_RXP1</t>
+  </si>
+  <si>
+    <t>BER1</t>
+  </si>
+  <si>
+    <t>RXP2</t>
+  </si>
+  <si>
+    <t>DDMI_RXP2</t>
+  </si>
+  <si>
+    <t>BER2</t>
+  </si>
+  <si>
+    <t>RXP3</t>
+  </si>
+  <si>
+    <t>DDMI_RXP3</t>
+  </si>
+  <si>
+    <t>BER3</t>
+  </si>
+  <si>
+    <t>RXP4</t>
+  </si>
+  <si>
+    <t>DDMI_RXP4</t>
+  </si>
+  <si>
+    <t>BER4</t>
+  </si>
+  <si>
+    <t>RXP5</t>
+  </si>
+  <si>
+    <t>DDMI_RXP5</t>
+  </si>
+  <si>
+    <t>Symbol_Err_4.5_Media</t>
+  </si>
+  <si>
+    <t>Symbol_Err_4.5_Host</t>
+  </si>
+  <si>
+    <t>Symbol_Err_0_Media</t>
+  </si>
+  <si>
+    <t>Symbol_Err_0_Host</t>
+  </si>
+  <si>
+    <t>Delta_Media</t>
+  </si>
+  <si>
+    <t>Delta_Host</t>
+  </si>
+  <si>
+    <t>TestNumber</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>DDMI_Bias</t>
+  </si>
+  <si>
+    <t>DDMI_TXP</t>
+  </si>
+  <si>
+    <t>DDMI_RXP</t>
   </si>
 </sst>
 </file>
@@ -294,10 +672,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,14 +704,7 @@
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -432,7 +803,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Analysis'!$A$3:$A$11</c:f>
+              <c:f>'Data Analysis'!$A$16:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -467,43 +838,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Analysis'!$D$3:$D$11</c:f>
+              <c:f>'Data Analysis'!$D$16:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BDF4-416C-9618-D4CFFE1EB157}"/>
+              <c16:uniqueId val="{00000000-E35F-42C6-B2B5-252EEBE3212A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -622,7 +966,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BDF4-416C-9618-D4CFFE1EB157}"/>
+              <c16:uniqueId val="{00000001-E35F-42C6-B2B5-252EEBE3212A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -811,14 +1155,7 @@
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -956,39 +1293,12 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ABC5-4419-9D31-39BC74C7D0A0}"/>
+              <c16:uniqueId val="{00000000-5CF4-4D1A-8F9D-EB7CCF982F0A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1107,7 +1417,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ABC5-4419-9D31-39BC74C7D0A0}"/>
+              <c16:uniqueId val="{00000001-5CF4-4D1A-8F9D-EB7CCF982F0A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1296,14 +1606,7 @@
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1462,7 +1765,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E45D-47AE-918A-3442DAE2A7AB}"/>
+              <c16:uniqueId val="{00000000-BCDE-4B5C-AFB0-9B156F743E11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1571,7 +1874,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E45D-47AE-918A-3442DAE2A7AB}"/>
+              <c16:uniqueId val="{00000001-BCDE-4B5C-AFB0-9B156F743E11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1920,14 +2223,7 @@
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2086,7 +2382,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6B0C-40BC-9E2E-5775701B1233}"/>
+              <c16:uniqueId val="{00000000-95D5-462D-8A77-A920471074F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2152,7 +2448,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6B0C-40BC-9E2E-5775701B1233}"/>
+              <c16:uniqueId val="{00000001-95D5-462D-8A77-A920471074F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2501,14 +2797,7 @@
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2667,7 +2956,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-60EB-4434-B950-2593FB0C1769}"/>
+              <c16:uniqueId val="{00000000-D320-4DBB-94F9-F7BD3814990D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2733,7 +3022,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-60EB-4434-B950-2593FB0C1769}"/>
+              <c16:uniqueId val="{00000001-D320-4DBB-94F9-F7BD3814990D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3082,14 +3371,7 @@
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3248,7 +3530,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8DB3-4065-978A-B716BA36B8EB}"/>
+              <c16:uniqueId val="{00000000-7D75-469B-9EDD-DD9BBF3063AD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3314,7 +3596,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8DB3-4065-978A-B716BA36B8EB}"/>
+              <c16:uniqueId val="{00000001-7D75-469B-9EDD-DD9BBF3063AD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3663,14 +3945,7 @@
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3829,7 +4104,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F31-4E0C-8213-90528D68596B}"/>
+              <c16:uniqueId val="{00000000-2194-46AB-AD63-BD2ECDEDA118}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3895,7 +4170,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3F31-4E0C-8213-90528D68596B}"/>
+              <c16:uniqueId val="{00000001-2194-46AB-AD63-BD2ECDEDA118}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4244,14 +4519,7 @@
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4418,7 +4686,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-365A-44D6-B385-6BB493D43502}"/>
+              <c16:uniqueId val="{00000000-7C46-429E-A8EE-38734C895581}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4484,7 +4752,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-365A-44D6-B385-6BB493D43502}"/>
+              <c16:uniqueId val="{00000001-7C46-429E-A8EE-38734C895581}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4833,14 +5101,7 @@
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5007,7 +5268,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9326-4170-9BAC-49FA5A220D9D}"/>
+              <c16:uniqueId val="{00000000-1E07-4FE2-8D73-12E8C3FFD2C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5073,7 +5334,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9326-4170-9BAC-49FA5A220D9D}"/>
+              <c16:uniqueId val="{00000001-1E07-4FE2-8D73-12E8C3FFD2C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5437,13 +5698,11 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3372725-8CA5-43A9-997C-155A2E47334B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5475,13 +5734,11 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85ED2128-1B97-4174-AE9B-F4B1A211D10B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5513,13 +5770,11 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA48F51-63EF-42E1-A80F-7FB68305F813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5551,13 +5806,11 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353E9CB1-4993-442B-B38E-9729532A0DE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5589,13 +5842,11 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9A7942-7055-41C4-91D7-CBF395DB0E02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5627,13 +5878,11 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97FDA79D-904B-40EB-9F29-AC63E829861B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5665,13 +5914,11 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E3AC6F4-7384-45E0-9592-52F5CF83AD6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5703,13 +5950,11 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC826DA-E1F8-4071-AE0D-09C58ECB6CF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5741,13 +5986,11 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5FE52D7-97D4-4564-AF88-F4F637942924}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5762,151 +6005,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Data Analysis"/>
-      <sheetName val="Error Code"/>
-      <sheetName val="其他"/>
-      <sheetName val="Failed Device"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="D2" t="str">
-            <v>Yield Rate</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Limit line</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>DDMI</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-          <cell r="E3">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>RT</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-          <cell r="E4">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>LT</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-          <cell r="E5">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>HT</v>
-          </cell>
-          <cell r="D6">
-            <v>0</v>
-          </cell>
-          <cell r="E6">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Burn In</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-          <cell r="E7">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>3T BER</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-          <cell r="E8">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>TC BER</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-          <cell r="E9">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>ATS</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-          <cell r="E10">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Switch</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-          <cell r="E11">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>Fail Q'ty</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>Cum%</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88" t="str">
-            <v>Fail Q'ty</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="D103" t="str">
-            <v>Cum%</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6171,11 +6269,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA72BCF-C987-4080-9CAA-BA148044FB6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A119" sqref="A119:D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6190,8 +6288,8 @@
     <col min="8" max="8" width="23.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="11" max="15" width="9" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -6224,15 +6322,9 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>0.9</v>
       </c>
@@ -6241,15 +6333,9 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>0.9</v>
       </c>
@@ -6258,15 +6344,9 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>0.9</v>
       </c>
@@ -6275,15 +6355,9 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>0.9</v>
       </c>
@@ -6292,15 +6366,9 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>0.9</v>
       </c>
@@ -6309,15 +6377,9 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>0.9</v>
       </c>
@@ -6326,15 +6388,9 @@
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>0.9</v>
       </c>
@@ -6343,15 +6399,9 @@
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>0.9</v>
       </c>
@@ -6360,15 +6410,9 @@
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3">
         <v>0.9</v>
       </c>
@@ -6379,7 +6423,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5">
-        <f>PRODUCT(D3:D11)</f>
+        <f>PRODUCT(D3:D6,D8:D10)</f>
         <v>0</v>
       </c>
     </row>
@@ -6413,15 +6457,9 @@
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3">
         <v>0.9</v>
       </c>
@@ -6430,15 +6468,9 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3">
         <v>0.9</v>
       </c>
@@ -6447,15 +6479,9 @@
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3">
         <v>0.9</v>
       </c>
@@ -6464,15 +6490,9 @@
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3">
         <v>0.9</v>
       </c>
@@ -6481,15 +6501,9 @@
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3">
         <v>0.9</v>
       </c>
@@ -6498,15 +6512,9 @@
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3">
         <v>0.9</v>
       </c>
@@ -6515,15 +6523,9 @@
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="3">
         <v>0.9</v>
       </c>
@@ -6532,15 +6534,9 @@
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="3">
         <v>0.9</v>
       </c>
@@ -6549,15 +6545,9 @@
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="3">
         <v>0.9</v>
       </c>
@@ -6568,7 +6558,7 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5">
-        <f>PRODUCT(D16:D24)</f>
+        <f>PRODUCT(D16:D19,D21:D23)</f>
         <v>0</v>
       </c>
     </row>
@@ -6579,7 +6569,7 @@
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
@@ -6588,7 +6578,7 @@
       <c r="B28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -6669,7 +6659,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -6682,7 +6672,7 @@
       <c r="B43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -6763,12 +6753,12 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="9"/>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
@@ -6777,7 +6767,7 @@
       <c r="B58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -6858,12 +6848,12 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
-      <c r="E72" s="9"/>
+      <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
@@ -6872,7 +6862,7 @@
       <c r="B73" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="6" t="s">
@@ -6953,12 +6943,12 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
-      <c r="E87" s="9"/>
+      <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
@@ -6967,7 +6957,7 @@
       <c r="B88" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D88" s="6" t="s">
@@ -7048,12 +7038,12 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
-      <c r="E102" s="9"/>
+      <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
@@ -7062,7 +7052,7 @@
       <c r="B103" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -7143,12 +7133,12 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
-      <c r="E117" s="9"/>
+      <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
@@ -7157,7 +7147,7 @@
       <c r="B118" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D118" s="6" t="s">
@@ -7238,15 +7228,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A72:D72"/>
     <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A14:E14"/>
     <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A72:D72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7256,7 +7246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7271,42 +7261,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -7314,4 +7304,532 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A2:CY2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>115</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>116</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>118</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>119</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>50</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>123</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>124</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>128</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>129</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>130</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>131</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>132</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>135</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>136</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A2:AJ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R2" t="s">
+        <v>146</v>
+      </c>
+      <c r="S2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T2" t="s">
+        <v>148</v>
+      </c>
+      <c r="U2" t="s">
+        <v>149</v>
+      </c>
+      <c r="V2" t="s">
+        <v>150</v>
+      </c>
+      <c r="W2" t="s">
+        <v>151</v>
+      </c>
+      <c r="X2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A2:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" t="s">
+        <v>136</v>
+      </c>
+      <c r="U2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>